--- a/Example/Excel/Example.xlsx
+++ b/Example/Excel/Example.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1758026D-FEE5-4AAF-98E4-BCDAE10BCF5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE13673C-764E-4145-AE8E-A694909B5FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32100" yWindow="495" windowWidth="28800" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +182,10 @@
   </si>
   <si>
     <t>1|104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,161 +526,161 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
       <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -709,31 +709,31 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -762,31 +762,31 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="P5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
         <v>46</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
